--- a/data/review_final_codecademygo.xlsx
+++ b/data/review_final_codecademygo.xlsx
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -23281,7 +23281,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
